--- a/medicine/Mort/Basses_œuvres/Basses_œuvres.xlsx
+++ b/medicine/Mort/Basses_œuvres/Basses_œuvres.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Basses_%C5%93uvres</t>
+          <t>Basses_œuvres</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les basses œuvres étaient des tâches d'intérêt général comme l'équarrissage des charognes, le curage des latrines, le nettoyage des égouts, l'abattage des chiens errants, etc.
 Dans la France de l'Ancien régime ces tâches étaient souvent confiées au bourreau qui portait alors le titre de maître des hautes et basses œuvres.
